--- a/バージョン管理/Git/GithubにコミットするためのSSH設定手順.xlsx
+++ b/バージョン管理/Git/GithubにコミットするためのSSH設定手順.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>https://tortoisegit.org/download/</t>
     <phoneticPr fontId="1"/>
@@ -230,6 +230,13 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミット確認</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2538,6 +2545,421 @@
         <a:xfrm>
           <a:off x="4457700" y="77819250"/>
           <a:ext cx="1009650" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>463</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>485</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="838200" y="79381350"/>
+          <a:ext cx="5810250" cy="3914775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>487</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>675419</xdr:colOff>
+      <xdr:row>523</xdr:row>
+      <xdr:rowOff>65895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="83496150"/>
+          <a:ext cx="6847619" cy="6238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>399057</xdr:colOff>
+      <xdr:row>554</xdr:row>
+      <xdr:rowOff>66045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="90011250"/>
+          <a:ext cx="7942857" cy="5038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>556</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>125182</xdr:colOff>
+      <xdr:row>574</xdr:row>
+      <xdr:rowOff>124273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17" descr="画面の領域"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="95326200"/>
+          <a:ext cx="9726382" cy="3210373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>485</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324099" y="82877025"/>
+          <a:ext cx="2809875" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>522</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="89325450"/>
+          <a:ext cx="1285875" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>552</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>553</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="94659450"/>
+          <a:ext cx="1285875" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>569</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>571</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="97640775"/>
+          <a:ext cx="9477375" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2866,9 +3288,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C459"/>
+  <dimension ref="A1:C462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A548" workbookViewId="0">
+      <selection activeCell="I579" sqref="I579"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3078,6 +3502,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C462" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/バージョン管理/Git/GithubにコミットするためのSSH設定手順.xlsx
+++ b/バージョン管理/Git/GithubにコミットするためのSSH設定手順.xlsx
@@ -323,36 +323,53 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>385</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>447105</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>18576</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPr id="65" name="図 64"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="22974300"/>
-          <a:ext cx="4561905" cy="3790476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="838200" y="66008250"/>
+          <a:ext cx="4733925" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -361,20 +378,20 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>620456</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>10125</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1" descr="画面の領域"/>
+        <xdr:cNvPr id="63" name="図 62"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -385,6 +402,281 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="838200" y="57607200"/>
+          <a:ext cx="4752975" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="838200" y="40976550"/>
+          <a:ext cx="9620250" cy="3781425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="838200" y="36404550"/>
+          <a:ext cx="9486900" cy="4105275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="838200" y="22974300"/>
+          <a:ext cx="4572000" cy="3781425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="838200" y="45262800"/>
+          <a:ext cx="4572000" cy="3781425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>620456</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>10125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="画面の領域"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -422,7 +714,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -586,7 +878,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -624,7 +916,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -788,7 +1080,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1010,7 +1302,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1065,7 +1357,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1268,22 +1560,633 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="37214175"/>
+          <a:ext cx="4333875" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="37947600"/>
+          <a:ext cx="7115175" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="39976425"/>
+          <a:ext cx="1247775" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3152775" y="32985075"/>
+          <a:ext cx="7229475" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="41957624"/>
+          <a:ext cx="7115175" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133851" y="48244126"/>
+          <a:ext cx="1123950" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>582350</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>152972</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>47062</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22" descr="画面の領域"/>
+        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="49549050"/>
+          <a:ext cx="7485714" cy="4504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="838200" y="54521100"/>
+          <a:ext cx="2105025" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="55711725"/>
+          <a:ext cx="523875" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="59702700"/>
+          <a:ext cx="895350" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>47062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="60693300"/>
+          <a:ext cx="7485714" cy="4504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>524810</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39" descr="画面の領域"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1302,819 +2205,6 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="36347400"/>
-          <a:ext cx="9497750" cy="4096322"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171825" y="37214175"/>
-          <a:ext cx="4333875" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171825" y="37947600"/>
-          <a:ext cx="7115175" cy="1981200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>233</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3171825" y="39976425"/>
-          <a:ext cx="1247775" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3152775" y="32985075"/>
-          <a:ext cx="7229475" cy="1304925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>29919</xdr:colOff>
-      <xdr:row>260</xdr:row>
-      <xdr:rowOff>133871</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27" descr="画面の領域"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="40976550"/>
-          <a:ext cx="9631119" cy="3734321"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3248025" y="41957624"/>
-          <a:ext cx="7115175" cy="1209675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>264</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447105</xdr:colOff>
-      <xdr:row>286</xdr:row>
-      <xdr:rowOff>18576</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="45434250"/>
-          <a:ext cx="4561905" cy="3790476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>280</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>281</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4133851" y="48244126"/>
-          <a:ext cx="1123950" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>288</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>627714</xdr:colOff>
-      <xdr:row>314</xdr:row>
-      <xdr:rowOff>47062</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="49549050"/>
-          <a:ext cx="7485714" cy="4504762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>319</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>332</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="838200" y="54521100"/>
-          <a:ext cx="2105025" cy="2343150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>325</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>328</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1743075" y="55711725"/>
-          <a:ext cx="523875" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>336</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>618533</xdr:colOff>
-      <xdr:row>352</xdr:row>
-      <xdr:rowOff>132990</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 35"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="57435750"/>
-          <a:ext cx="4733333" cy="2876190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>349</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>351</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1895475" y="59702700"/>
-          <a:ext cx="895350" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>356</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>627714</xdr:colOff>
-      <xdr:row>382</xdr:row>
-      <xdr:rowOff>47062</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="60693300"/>
-          <a:ext cx="7485714" cy="4504762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>385</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>618533</xdr:colOff>
-      <xdr:row>401</xdr:row>
-      <xdr:rowOff>132990</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="図 38"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="66008250"/>
-          <a:ext cx="4733333" cy="2876190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>405</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>524810</xdr:colOff>
-      <xdr:row>419</xdr:row>
-      <xdr:rowOff>335</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="図 39" descr="画面の領域"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="838200" y="69437250"/>
           <a:ext cx="6697010" cy="2400635"/>
         </a:xfrm>
@@ -2128,15 +2218,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>399</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>402</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2145,7 +2235,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4695825" y="68560950"/>
+          <a:off x="4629150" y="68532375"/>
           <a:ext cx="895350" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3290,9 +3380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A548" workbookViewId="0">
-      <selection activeCell="I579" sqref="I579"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/バージョン管理/Git/GithubにコミットするためのSSH設定手順.xlsx
+++ b/バージョン管理/Git/GithubにコミットするためのSSH設定手順.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\kanosawa\Doc\バージョン管理\Git\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F690611-6961-4AFC-9B08-CB932D8D4006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="21555" windowHeight="9420"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="13920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>https://tortoisegit.org/download/</t>
     <phoneticPr fontId="1"/>
@@ -240,12 +246,36 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>起動していなかったらメニューから起動</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前提条件</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitがインストールされていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +300,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -288,8 +327,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -300,11 +342,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -313,6 +356,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -323,18 +369,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>385</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>401</xdr:row>
+      <xdr:row>411</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="図 64"/>
+        <xdr:cNvPr id="65" name="図 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -378,18 +430,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>336</xdr:row>
+      <xdr:row>346</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>352</xdr:row>
+      <xdr:row>362</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="図 62"/>
+        <xdr:cNvPr id="63" name="図 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -433,18 +491,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60"/>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -488,18 +552,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58"/>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -543,18 +613,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="図 56"/>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -598,18 +674,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="図 55"/>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -653,18 +735,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>620456</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>10125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1" descr="画面の領域"/>
+        <xdr:cNvPr id="2" name="図 1" descr="画面の領域">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -697,18 +785,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>56512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>620456</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2" descr="画面の領域"/>
+        <xdr:cNvPr id="3" name="図 2" descr="画面の領域">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -741,18 +835,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -801,18 +901,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -861,18 +967,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447105</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>18576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -899,18 +1011,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>524810</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6" descr="画面の領域"/>
+        <xdr:cNvPr id="7" name="図 6" descr="画面の領域">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -943,18 +1061,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1003,18 +1127,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1063,18 +1193,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447105</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>18576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1101,18 +1237,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1161,18 +1303,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="環状矢印 11"/>
+        <xdr:cNvPr id="12" name="環状矢印 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1225,18 +1373,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1285,18 +1439,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1340,18 +1500,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>29919</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>133871</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18" descr="画面の領域"/>
+        <xdr:cNvPr id="19" name="図 18" descr="画面の領域">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1384,18 +1550,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1444,18 +1616,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1504,18 +1682,24 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1564,18 +1748,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1624,18 +1814,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1684,18 +1880,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1744,18 +1946,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1804,18 +2012,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1864,18 +2078,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1924,18 +2144,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>627714</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>47062</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1962,18 +2188,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33"/>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2017,18 +2249,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>338</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2077,18 +2315,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>349</xdr:row>
+      <xdr:row>359</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>351</xdr:row>
+      <xdr:row>361</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2137,18 +2381,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>356</xdr:row>
+      <xdr:row>366</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>627714</xdr:colOff>
-      <xdr:row>382</xdr:row>
+      <xdr:row>392</xdr:row>
       <xdr:rowOff>47062</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2175,18 +2425,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>405</xdr:row>
+      <xdr:row>415</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>524810</xdr:colOff>
-      <xdr:row>419</xdr:row>
+      <xdr:row>429</xdr:row>
       <xdr:rowOff>335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="図 39" descr="画面の領域"/>
+        <xdr:cNvPr id="40" name="図 39" descr="画面の領域">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2219,18 +2475,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>399</xdr:row>
+      <xdr:row>409</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>401</xdr:row>
+      <xdr:row>411</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2279,18 +2541,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:row>389</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>382</xdr:row>
+      <xdr:row>392</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2339,18 +2607,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>377</xdr:row>
+      <xdr:row>387</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>380</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2399,18 +2673,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>412</xdr:row>
+      <xdr:row>422</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>414</xdr:row>
+      <xdr:row>424</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2459,18 +2739,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>422</xdr:row>
+      <xdr:row>432</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>503905</xdr:colOff>
-      <xdr:row>455</xdr:row>
+      <xdr:row>465</xdr:row>
       <xdr:rowOff>170721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2497,18 +2783,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>440</xdr:row>
+      <xdr:row>450</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>442</xdr:row>
+      <xdr:row>452</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2557,18 +2849,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>443</xdr:row>
+      <xdr:row>453</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>445</xdr:row>
+      <xdr:row>455</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2617,18 +2915,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>453</xdr:row>
+      <xdr:row>463</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>455</xdr:row>
+      <xdr:row>465</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2677,18 +2981,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>463</xdr:row>
+      <xdr:row>473</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>485</xdr:row>
+      <xdr:row>495</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49"/>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2732,18 +3042,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>487</xdr:row>
+      <xdr:row>497</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>675419</xdr:colOff>
-      <xdr:row>523</xdr:row>
+      <xdr:row>533</xdr:row>
       <xdr:rowOff>65895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2770,18 +3086,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>535</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>399057</xdr:colOff>
-      <xdr:row>554</xdr:row>
+      <xdr:row>564</xdr:row>
       <xdr:rowOff>66045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2808,18 +3130,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>556</xdr:row>
+      <xdr:row>566</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>125182</xdr:colOff>
-      <xdr:row>574</xdr:row>
+      <xdr:row>584</xdr:row>
       <xdr:rowOff>124273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17" descr="画面の領域"/>
+        <xdr:cNvPr id="18" name="図 17" descr="画面の領域">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2852,18 +3180,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>483</xdr:row>
+      <xdr:row>493</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>485</xdr:row>
+      <xdr:row>495</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2912,18 +3246,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>521</xdr:row>
+      <xdr:row>531</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>522</xdr:row>
+      <xdr:row>532</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2972,18 +3312,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>552</xdr:row>
+      <xdr:row>562</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>553</xdr:row>
+      <xdr:row>563</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3032,18 +3378,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>569</xdr:row>
+      <xdr:row>579</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>571</xdr:row>
+      <xdr:row>581</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="正方形/長方形 53"/>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3088,13 +3440,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>86083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB12302E-BFA0-80EE-6829-3AD229E35DB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="54864000"/>
+          <a:ext cx="1562100" cy="2143483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3132,7 +3528,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3204,7 +3600,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3377,10 +3773,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C462"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G472"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3394,211 +3792,229 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
+      <c r="B3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="1"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B43">
         <v>2</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C43" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B63">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B73">
         <v>3</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C73" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76">
         <v>2</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B67">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B77">
         <v>1</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C77" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B83">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B93">
         <v>2</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C93" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B108">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B118">
         <v>3</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C118" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B133">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B143">
         <v>4</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C143" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B158">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B168">
         <v>5</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C168" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B186">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B196">
         <v>6</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C196" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B211">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B221">
         <v>7</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C221" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B239">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B249">
         <v>8</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C249" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B264">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B274">
         <v>5</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C274" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B288">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B298">
         <v>6</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C298" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B317">
+    <row r="327" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B327">
         <v>7</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C327" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B319">
+    <row r="329" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B329">
         <v>8</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C329" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B336">
+    <row r="330" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G330" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B346">
         <v>9</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C346" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B356">
+    <row r="366" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B366">
         <v>10</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C366" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B385">
+    <row r="395" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B395">
         <v>11</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C395" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B405">
+    <row r="415" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B415">
         <v>12</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C415" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B421">
+    <row r="431" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B431">
         <v>13</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C431" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C422" t="s">
+    <row r="432" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C432" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B459">
+    <row r="469" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B469">
         <v>14</v>
       </c>
-      <c r="C459" t="s">
+      <c r="C469" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="462" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C462" t="s">
+    <row r="472" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C472" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{E5631EBF-8891-4453-BE55-125A250B3951}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>